--- a/data/trans_orig/P29_R2_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P29_R2_2023-Provincia-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>42782</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>31718</v>
+        <v>32344</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>54444</v>
+        <v>55174</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1341781342913488</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09947791532188566</v>
+        <v>0.1014407775584653</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1707551205773277</v>
+        <v>0.1730446134396127</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -762,19 +762,19 @@
         <v>7162</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3619</v>
+        <v>3843</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12591</v>
+        <v>11896</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02266104708047387</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01144938783185236</v>
+        <v>0.01215866658029386</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03983769017583763</v>
+        <v>0.03763943306555575</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>65</v>
@@ -783,19 +783,19 @@
         <v>49944</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>38934</v>
+        <v>38697</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>64135</v>
+        <v>62461</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07866414245352166</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06132244003375617</v>
+        <v>0.06094988858126974</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1010150449243324</v>
+        <v>0.0983777999985463</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>276063</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>264401</v>
+        <v>263671</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>287127</v>
+        <v>286501</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8658218657086512</v>
+        <v>0.8658218657086514</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8292448794226726</v>
+        <v>0.8269553865603875</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9005220846781145</v>
+        <v>0.8985592224415347</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>525</v>
@@ -833,19 +833,19 @@
         <v>308899</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>303470</v>
+        <v>304165</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>312442</v>
+        <v>312218</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9773389529195262</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9601623098241624</v>
+        <v>0.9623605669344443</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9885506121681477</v>
+        <v>0.9878413334197064</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>804</v>
@@ -854,19 +854,19 @@
         <v>584962</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>570771</v>
+        <v>572445</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>595972</v>
+        <v>596209</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9213358575464784</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8989849550756674</v>
+        <v>0.9016222000014537</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9386775599662438</v>
+        <v>0.9390501114187302</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>31641</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>21040</v>
+        <v>21991</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45460</v>
+        <v>45598</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05988179522179168</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03981944898069284</v>
+        <v>0.04161824441667558</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08603515804648207</v>
+        <v>0.08629718638518662</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -979,19 +979,19 @@
         <v>3869</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1473</v>
+        <v>1327</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8277</v>
+        <v>7986</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.007088291881441294</v>
+        <v>0.007088291881441295</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.002698896583469284</v>
+        <v>0.002430803499269148</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01516253894839407</v>
+        <v>0.01462862969322603</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>34</v>
@@ -1000,19 +1000,19 @@
         <v>35510</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>23949</v>
+        <v>24750</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>47742</v>
+        <v>48022</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03305518694617755</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02229304544757119</v>
+        <v>0.02303883686493262</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04444120963511095</v>
+        <v>0.04470148971025005</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>496748</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>482929</v>
+        <v>482791</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>507349</v>
+        <v>506398</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9401182047782083</v>
+        <v>0.9401182047782082</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9139648419535178</v>
+        <v>0.9137028136148135</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9601805510193071</v>
+        <v>0.9583817555833245</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>710</v>
@@ -1050,19 +1050,19 @@
         <v>542014</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>537606</v>
+        <v>537897</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>544410</v>
+        <v>544556</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9929117081185587</v>
+        <v>0.9929117081185589</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9848374610516059</v>
+        <v>0.9853713703067736</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9973011034165306</v>
+        <v>0.9975691965007307</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1062</v>
@@ -1071,19 +1071,19 @@
         <v>1038762</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1026530</v>
+        <v>1026250</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1050323</v>
+        <v>1049522</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9669448130538224</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9555587903648889</v>
+        <v>0.9552985102897501</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9777069545524286</v>
+        <v>0.9769611631350673</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>64672</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>53546</v>
+        <v>52620</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>77076</v>
+        <v>78164</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2046641486681915</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1694540697877011</v>
+        <v>0.1665229811953648</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2439181834578544</v>
+        <v>0.2473584422190702</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>21</v>
@@ -1196,19 +1196,19 @@
         <v>12269</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7925</v>
+        <v>8159</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>18421</v>
+        <v>18712</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03442791099372246</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02223639391739598</v>
+        <v>0.02289335309648558</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05168886300896455</v>
+        <v>0.05250566862651677</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>113</v>
@@ -1217,19 +1217,19 @@
         <v>76942</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>63689</v>
+        <v>63875</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>92261</v>
+        <v>90635</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1144331921002742</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09472283523492678</v>
+        <v>0.09499861666961237</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1372168928682974</v>
+        <v>0.1347989167239727</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>251321</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>238917</v>
+        <v>237829</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>262447</v>
+        <v>263373</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7953358513318085</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7560818165421457</v>
+        <v>0.7526415577809298</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8305459302122987</v>
+        <v>0.8334770188046351</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>515</v>
@@ -1267,19 +1267,19 @@
         <v>344112</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>337960</v>
+        <v>337669</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>348456</v>
+        <v>348222</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9655720890062777</v>
+        <v>0.9655720890062773</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9483111369910351</v>
+        <v>0.9474943313734837</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9777636060826039</v>
+        <v>0.9771066469035146</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>783</v>
@@ -1288,19 +1288,19 @@
         <v>595433</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>580114</v>
+        <v>581740</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>608686</v>
+        <v>608500</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.885566807899726</v>
+        <v>0.8855668078997259</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8627831071317026</v>
+        <v>0.8652010832760274</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9052771647650733</v>
+        <v>0.905001383330388</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>65342</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>51996</v>
+        <v>50807</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>83081</v>
+        <v>80836</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1751117264424405</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1393441831554187</v>
+        <v>0.1361581537876971</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2226508064791953</v>
+        <v>0.2166337407582473</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>28</v>
@@ -1413,19 +1413,19 @@
         <v>15821</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10436</v>
+        <v>10758</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>22606</v>
+        <v>23229</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03749513662759547</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02473309777637</v>
+        <v>0.02549441190658376</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0535735758397027</v>
+        <v>0.05505122680855032</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>97</v>
@@ -1434,19 +1434,19 @@
         <v>81164</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>65187</v>
+        <v>65329</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>99286</v>
+        <v>100660</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1020788935291095</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08198524934839746</v>
+        <v>0.08216326561681606</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1248713179882514</v>
+        <v>0.1265987153047962</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>307803</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>290064</v>
+        <v>292309</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>321149</v>
+        <v>322338</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8248882735575597</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.777349193520805</v>
+        <v>0.7833662592417528</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8606558168445817</v>
+        <v>0.8638418462123029</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>571</v>
@@ -1484,19 +1484,19 @@
         <v>406140</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>399355</v>
+        <v>398732</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>411525</v>
+        <v>411203</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9625048633724046</v>
+        <v>0.9625048633724048</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9464264241602974</v>
+        <v>0.9449487731914498</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.97526690222363</v>
+        <v>0.9745055880934163</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>794</v>
@@ -1505,19 +1505,19 @@
         <v>713943</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>695821</v>
+        <v>694447</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>729920</v>
+        <v>729778</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8979211064708905</v>
+        <v>0.8979211064708903</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8751286820117485</v>
+        <v>0.8734012846952039</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9180147506516028</v>
+        <v>0.917836734383184</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>23047</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>15828</v>
+        <v>16094</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>30752</v>
+        <v>32058</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1120628741914537</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0769600921379458</v>
+        <v>0.07825223653029445</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.149522312826588</v>
+        <v>0.1558764429975089</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -1630,19 +1630,19 @@
         <v>4837</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2459</v>
+        <v>2448</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8949</v>
+        <v>9191</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.02128919294826301</v>
+        <v>0.021289192948263</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01082340621102053</v>
+        <v>0.01077594207282788</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03938543995882064</v>
+        <v>0.04045222092665959</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>42</v>
@@ -1651,19 +1651,19 @@
         <v>27885</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>20253</v>
+        <v>20430</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>37890</v>
+        <v>37346</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06441654673371605</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0467858764019877</v>
+        <v>0.0471947932247387</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08753121909253124</v>
+        <v>0.08627272180415212</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>182618</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>174913</v>
+        <v>173607</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>189837</v>
+        <v>189571</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8879371258085463</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8504776871734121</v>
+        <v>0.8441235570024912</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9230399078620543</v>
+        <v>0.9217477634697057</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>482</v>
@@ -1701,19 +1701,19 @@
         <v>222378</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>218266</v>
+        <v>218024</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>224756</v>
+        <v>224767</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9787108070517371</v>
+        <v>0.9787108070517367</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9606145600411794</v>
+        <v>0.9595477790733404</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9891765937889796</v>
+        <v>0.9892240579271723</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>729</v>
@@ -1722,19 +1722,19 @@
         <v>404994</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>394989</v>
+        <v>395533</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>412626</v>
+        <v>412449</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9355834532662841</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9124687809074689</v>
+        <v>0.9137272781958478</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9532141235980123</v>
+        <v>0.952805206775261</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>56517</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>45978</v>
+        <v>45737</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>69163</v>
+        <v>67800</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2093590157946262</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1703187962659369</v>
+        <v>0.1694263054075545</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2562030395386967</v>
+        <v>0.2511550203532665</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>18</v>
@@ -1847,19 +1847,19 @@
         <v>9004</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>5498</v>
+        <v>5526</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>14275</v>
+        <v>14001</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.03413698679014211</v>
+        <v>0.0341369867901421</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02084478120846851</v>
+        <v>0.02095159469174601</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05412187296943907</v>
+        <v>0.05308416555196671</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>107</v>
@@ -1868,19 +1868,19 @@
         <v>65521</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>53909</v>
+        <v>53935</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>79101</v>
+        <v>79242</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1227663046576999</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1010095392496863</v>
+        <v>0.1010583283676913</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.148210526319775</v>
+        <v>0.1484757859748277</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>213437</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>200791</v>
+        <v>202154</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>223976</v>
+        <v>224217</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.7906409842053739</v>
+        <v>0.7906409842053738</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7437969604613028</v>
+        <v>0.7488449796467338</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8296812037340631</v>
+        <v>0.8305736945924455</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>442</v>
@@ -1918,19 +1918,19 @@
         <v>254746</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>249475</v>
+        <v>249749</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>258252</v>
+        <v>258224</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9658630132098579</v>
+        <v>0.9658630132098577</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.945878127030561</v>
+        <v>0.9469158344480335</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9791552187915316</v>
+        <v>0.9790484053082539</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>723</v>
@@ -1939,19 +1939,19 @@
         <v>468183</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>454603</v>
+        <v>454462</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>479795</v>
+        <v>479769</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8772336953423001</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8517894736802247</v>
+        <v>0.8515242140251721</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8989904607503136</v>
+        <v>0.8989416716323085</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>90150</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>73029</v>
+        <v>73717</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>108342</v>
+        <v>111328</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1260584128311998</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1021179980063378</v>
+        <v>0.1030793537953119</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.151496566063555</v>
+        <v>0.1556721452117251</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>41</v>
@@ -2064,19 +2064,19 @@
         <v>29800</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>21510</v>
+        <v>22202</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>41254</v>
+        <v>42154</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.03882071450651777</v>
+        <v>0.03882071450651776</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02802093442157232</v>
+        <v>0.02892267245115839</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05374214620402007</v>
+        <v>0.05491517690575073</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>131</v>
@@ -2085,19 +2085,19 @@
         <v>119950</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>100195</v>
+        <v>100248</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>142829</v>
+        <v>140586</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08089582743654455</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06757257198281783</v>
+        <v>0.06760863569068723</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09632606922705129</v>
+        <v>0.09481328488588053</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>624996</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>606804</v>
+        <v>603818</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>642117</v>
+        <v>641429</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.8739415871688</v>
+        <v>0.8739415871687999</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.848503433936445</v>
+        <v>0.8443278547882748</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8978820019936621</v>
+        <v>0.8969206462046883</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>913</v>
@@ -2135,19 +2135,19 @@
         <v>737823</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>726369</v>
+        <v>725469</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>746113</v>
+        <v>745421</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9611792854934824</v>
+        <v>0.9611792854934822</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9462578537959803</v>
+        <v>0.9450848230942495</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9719790655784277</v>
+        <v>0.9710773275488416</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1418</v>
@@ -2156,19 +2156,19 @@
         <v>1362819</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1339940</v>
+        <v>1342183</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1382574</v>
+        <v>1382521</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9191041725634554</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9036739307729486</v>
+        <v>0.9051867151141195</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9324274280171821</v>
+        <v>0.9323913643093127</v>
       </c>
     </row>
     <row r="24">
@@ -2260,19 +2260,19 @@
         <v>200748</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>176874</v>
+        <v>175798</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>227350</v>
+        <v>223056</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2515406091359393</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2216260337119478</v>
+        <v>0.2202777546733859</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2848736149460433</v>
+        <v>0.2794931903411242</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>46</v>
@@ -2281,19 +2281,19 @@
         <v>36749</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>28212</v>
+        <v>28029</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>48752</v>
+        <v>47790</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04438222933403106</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03407183480675761</v>
+        <v>0.03385160445850961</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05887894238488364</v>
+        <v>0.05771691711574844</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>249</v>
@@ -2302,19 +2302,19 @@
         <v>237496</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>208652</v>
+        <v>211310</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>266211</v>
+        <v>266706</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1460547826132322</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1283160090580118</v>
+        <v>0.129950654414672</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1637138241527457</v>
+        <v>0.1640181498747174</v>
       </c>
     </row>
     <row r="26">
@@ -2331,19 +2331,19 @@
         <v>597324</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>570722</v>
+        <v>575016</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>621198</v>
+        <v>622274</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7484593908640607</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7151263850539566</v>
+        <v>0.7205068096588758</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7783739662880522</v>
+        <v>0.7797222453266143</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1012</v>
@@ -2352,19 +2352,19 @@
         <v>791255</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>779252</v>
+        <v>780214</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>799792</v>
+        <v>799975</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.955617770665969</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9411210576151163</v>
+        <v>0.9422830828842516</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9659281651932422</v>
+        <v>0.9661483955414903</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1571</v>
@@ -2373,19 +2373,19 @@
         <v>1388580</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1359865</v>
+        <v>1359370</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1417424</v>
+        <v>1414766</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8539452173867679</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8362861758472545</v>
+        <v>0.8359818501252825</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8716839909419878</v>
+        <v>0.8700493455853282</v>
       </c>
     </row>
     <row r="27">
@@ -2477,19 +2477,19 @@
         <v>574900</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>528657</v>
+        <v>535099</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>617735</v>
+        <v>619834</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1630824753013031</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1499647344990363</v>
+        <v>0.1517920886448285</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.175233472421133</v>
+        <v>0.1758289925390184</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>183</v>
@@ -2498,19 +2498,19 @@
         <v>119512</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>102764</v>
+        <v>103359</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>138893</v>
+        <v>139966</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.03206753535486157</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.0275737690103387</v>
+        <v>0.02773340642727296</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.03726779689148163</v>
+        <v>0.03755592366352876</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>838</v>
@@ -2519,19 +2519,19 @@
         <v>694412</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>650081</v>
+        <v>646837</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>738451</v>
+        <v>746994</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.09575334199999641</v>
+        <v>0.0957533419999964</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.08964058213669704</v>
+        <v>0.08919326331497511</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1018259326698012</v>
+        <v>0.1030039939129263</v>
       </c>
     </row>
     <row r="29">
@@ -2548,19 +2548,19 @@
         <v>2950309</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2907474</v>
+        <v>2905375</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2996552</v>
+        <v>2990110</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8369175246986968</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.824766527578867</v>
+        <v>0.8241710074609813</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8500352655009636</v>
+        <v>0.8482079113551714</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>5170</v>
@@ -2569,19 +2569,19 @@
         <v>3607367</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3587986</v>
+        <v>3586913</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3624115</v>
+        <v>3623520</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.9679324646451385</v>
+        <v>0.9679324646451386</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9627322031085183</v>
+        <v>0.9624440763364714</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9724262309896613</v>
+        <v>0.9722665935727275</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>7884</v>
@@ -2590,19 +2590,19 @@
         <v>6557676</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6513637</v>
+        <v>6505094</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6602007</v>
+        <v>6605251</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9042466580000035</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8981740673301988</v>
+        <v>0.8969960060870737</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.910359417863303</v>
+        <v>0.910806736685025</v>
       </c>
     </row>
     <row r="30">
